--- a/xlsx/Mazda_intext.xlsx
+++ b/xlsx/Mazda_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="889">
   <si>
     <t>Mazda</t>
   </si>
@@ -29,7 +29,7 @@
     <t>马自达 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Mazda</t>
+    <t>政策_政策_混合动力车辆_Mazda</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>東京證券交易所</t>
+    <t>东京证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%94%B0%E9%87%8D%E6%AC%A1%E9%83%8E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%A3%BC%E9%9B%85%E9%81%93</t>
   </si>
   <si>
-    <t>小飼雅道</t>
+    <t>小饲雅道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E7%B8%A3</t>
   </si>
   <si>
-    <t>廣島縣</t>
+    <t>广岛县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%97%9D%E9%83%A1_(%E5%BB%A3%E5%B3%B6%E7%B8%A3)</t>
   </si>
   <si>
-    <t>安藝郡 (廣島縣)</t>
+    <t>安艺郡 (广岛县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%9C%E4%B8%AD%E7%94%BA</t>
@@ -95,49 +95,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E5%89%8D%E6%81%AF%E5%89%8D%E5%88%A9%E6%BD%A4</t>
   </si>
   <si>
-    <t>稅前息前利潤</t>
+    <t>税前息前利润</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E6%94%B6%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>實收資本</t>
+    <t>实收资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94%E8%BD%89%E5%AD%90%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>馬自達轉子引擎</t>
+    <t>马自达转子引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -185,37 +185,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%83%A1%E6%8B%89%C2%B7%E9%A6%AC%E8%8C%B2%E9%81%94</t>
   </si>
   <si>
-    <t>阿胡拉·馬茲達</t>
+    <t>阿胡拉·马兹达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A8%99</t>
   </si>
   <si>
-    <t>商標</t>
+    <t>商标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E8%8F%AF%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>大中華地區</t>
+    <t>大中华地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -227,49 +227,49 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B0%B4%E7%93%B6</t>
   </si>
   <si>
-    <t>熱水瓶</t>
+    <t>热水瓶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94MAZDA%E8%99%9F</t>
   </si>
   <si>
-    <t>馬自達MAZDA號</t>
+    <t>马自达MAZDA号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎車</t>
+    <t>轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94R360_Coupe</t>
   </si>
   <si>
-    <t>馬自達R360 Coupe</t>
+    <t>马自达R360 Coupe</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Carol</t>
   </si>
   <si>
-    <t>馬自達Carol</t>
+    <t>马自达Carol</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94323</t>
   </si>
   <si>
-    <t>馬自達323</t>
+    <t>马自达323</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NSU%E8%BB%8A%E5%BB%A0</t>
   </si>
   <si>
-    <t>NSU車廠</t>
+    <t>NSU车厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%AA</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E5%85%8B%E7%88%BE%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>汪克爾引擎</t>
+    <t>汪克尔引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%8B%95%E6%A9%9F</t>
   </si>
   <si>
-    <t>發動機</t>
+    <t>发动机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2</t>
@@ -299,25 +299,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%88%BE%E6%9C%AC</t>
   </si>
   <si>
-    <t>墨爾本</t>
+    <t>墨尔本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94R100</t>
   </si>
   <si>
-    <t>馬自達R100</t>
+    <t>马自达R100</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>第一次石油危機</t>
+    <t>第一次石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>三井住友銀行</t>
+    <t>三井住友银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%B3%A1%E6%B2%AB%E7%BB%8F%E6%B5%8E</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>輕型車</t>
+    <t>轻型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Autozam</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Autorama</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行銷</t>
+    <t>行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪鐵龍</t>
+    <t>雪铁龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%9D%E6%97%97%E4%BA%9A</t>
@@ -395,19 +395,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%93</t>
   </si>
   <si>
-    <t>日圓</t>
+    <t>日圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007%E5%B9%B4%EF%BC%8D2010%E5%B9%B4%E7%92%B0%E7%90%83%E9%87%91%E8%9E%8D%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>2007年－2010年環球金融危機</t>
+    <t>2007年－2010年环球金融危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%A6%B3%E8%97%8D%E5%A4%A9%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>創馳藍天技術</t>
+    <t>创驰蓝天技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%9B%98</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E4%BA%9E%E7%89%B9</t>
   </si>
   <si>
-    <t>菲亞特</t>
+    <t>菲亚特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E6%B3%95%C2%B7%E7%BD%97%E5%AF%86%E6%AC%A7</t>
@@ -431,31 +431,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94MX-5</t>
   </si>
   <si>
-    <t>馬自達MX-5</t>
+    <t>马自达MX-5</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E9%A1%8D</t>
   </si>
   <si>
-    <t>資本額</t>
+    <t>资本额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%B3%87%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>合資公司</t>
+    <t>合资公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%98%AD%E8%8E%AA%E5%B7%9E</t>
   </si>
   <si>
-    <t>雪蘭莪州</t>
+    <t>雪兰莪州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E9%98%BF%E5%8D%97</t>
@@ -467,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-5</t>
   </si>
   <si>
-    <t>馬自達CX-5</t>
+    <t>马自达CX-5</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sollers_JSC</t>
@@ -485,19 +485,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BF%B1%E6%B5%B7%E9%82%8A%E7%96%86%E5%8D%80</t>
   </si>
   <si>
-    <t>濱海邊疆區</t>
+    <t>滨海边疆区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8F%83%E5%B4%B4</t>
   </si>
   <si>
-    <t>海參崴</t>
+    <t>海参崴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%946</t>
   </si>
   <si>
-    <t>馬自達6</t>
+    <t>马自达6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -521,31 +521,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>豐田汽車</t>
+    <t>丰田汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BC%E7%89%8C%E7%94%9F%E7%94%A2</t>
   </si>
   <si>
-    <t>貼牌生產</t>
+    <t>贴牌生产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E5%8B%95%E5%8A%9B%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>混合動力車輛</t>
+    <t>混合动力车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%943</t>
   </si>
   <si>
-    <t>馬自達3</t>
+    <t>马自达3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E6%AD%A6%E9%87%8C%E5%BA%9C</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9D%B1%E8%81%AF%E9%82%A6%E7%AE%A1%E5%8D%80</t>
   </si>
   <si>
-    <t>遠東聯邦管區</t>
+    <t>远东联邦管区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E8%82%A1%E5%85%AC%E5%8F%B8</t>
@@ -581,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%A4%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>亞太區</t>
+    <t>亚太区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E7%A6%8F%E5%85%8B%E6%96%AF</t>
@@ -593,37 +593,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E5%B8%82</t>
   </si>
   <si>
-    <t>重慶市</t>
+    <t>重庆市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E5%AE%89%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>長安汽車</t>
+    <t>长安汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>富豪汽車</t>
+    <t>富豪汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%88%B5%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>品爵汽車</t>
+    <t>品爵汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%85%AD%E5%92%8C%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特六和汽車</t>
+    <t>福特六和汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -635,43 +635,43 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E9%87%8E%E9%A6%AC</t>
   </si>
   <si>
-    <t>福特野馬</t>
+    <t>福特野马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%87%E5%BA%9C</t>
   </si>
   <si>
-    <t>羅勇府</t>
+    <t>罗勇府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94BT-50</t>
   </si>
   <si>
-    <t>馬自達BT-50</t>
+    <t>马自达BT-50</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%942</t>
   </si>
   <si>
-    <t>馬自達2</t>
+    <t>马自达2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%98%89%E5%B9%B4%E8%8F%AF</t>
   </si>
   <si>
-    <t>福特嘉年華</t>
+    <t>福特嘉年华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%8F%A3%E7%B8%A3</t>
   </si>
   <si>
-    <t>山口縣</t>
+    <t>山口县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6</t>
   </si>
   <si>
-    <t>重慶</t>
+    <t>重庆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC</t>
@@ -689,19 +689,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%945</t>
   </si>
   <si>
-    <t>馬自達5</t>
+    <t>马自达5</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E9%9B%85%E7%89%B9%E6%B1%BD%E8%BB%8A%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>飛雅特汽車集團</t>
+    <t>飞雅特汽车集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%92%E8%A7%A3%E5%82%99%E5%BF%98%E9%8C%84</t>
   </si>
   <si>
-    <t>諒解備忘錄</t>
+    <t>谅解备忘录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6</t>
   </si>
   <si>
-    <t>廣島</t>
+    <t>广岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%9B%BD%E9%99%85%E8%BD%A6%E5%B1%95</t>
@@ -755,13 +755,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8B%95%E9%A7%95%E9%A7%9B%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>自動駕駛汽車</t>
+    <t>自动驾驶汽车</t>
   </si>
   <si>
     <t>https://ja.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E3%83%88%E3%83%A9%E3%82%B9%E3%83%86%E3%82%A3%E3%83%BB%E3%82%B5%E3%83%BC%E3%83%93%E3%82%B9%E4%BF%A1%E8%A8%97%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>ja-日本トラスティ・サービス信託銀行</t>
+    <t>ja-日本トラスティ・サービス信讬银行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bank_of_New_York</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>大通銀行</t>
+    <t>大通银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%94%B0%E6%81%92%E6%AC%A1</t>
@@ -785,25 +785,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Cosmo</t>
   </si>
   <si>
-    <t>馬自達Cosmo</t>
+    <t>马自达Cosmo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Luce</t>
   </si>
   <si>
-    <t>馬自達Luce</t>
+    <t>马自达Luce</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94626</t>
   </si>
   <si>
-    <t>馬自達626</t>
+    <t>马自达626</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E6%9D%B1%E6%B4%8B%E9%AF%89%E9%AD%9A</t>
   </si>
   <si>
-    <t>廣島東洋鯉魚</t>
+    <t>广岛东洋鲤鱼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E7%94%B0%E8%80%95%E5%B9%B3</t>
@@ -815,37 +815,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%B4%8E%E8%8A%B3%E6%A8%B9</t>
   </si>
   <si>
-    <t>山崎芳樹</t>
+    <t>山崎芳树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-7</t>
   </si>
   <si>
-    <t>馬自達RX-7</t>
+    <t>马自达RX-7</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E7%BD%AE%E5%89%8D%E9%A9%85</t>
   </si>
   <si>
-    <t>前置前驅</t>
+    <t>前置前驱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Bongo</t>
   </si>
   <si>
-    <t>馬自達Bongo</t>
+    <t>马自达Bongo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E4%B8%89%E7%AE%AD</t>
   </si>
   <si>
-    <t>廣島三箭</t>
+    <t>广岛三箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E6%9C%AC%E5%81%A5%E4%B8%80_(%E9%A6%AC%E8%87%AA%E9%81%94)</t>
   </si>
   <si>
-    <t>山本健一 (馬自達)</t>
+    <t>山本健一 (马自达)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%B0%E5%BE%B7%E6%98%8C</t>
@@ -857,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%94%A2%E6%A5%AD%E7%9C%81</t>
   </si>
   <si>
-    <t>經濟產業省</t>
+    <t>经济产业省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%81%E7%89%8C%E7%AD%96%E7%95%A5</t>
@@ -869,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Sentia</t>
   </si>
   <si>
-    <t>馬自達Sentia</t>
+    <t>马自达Sentia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Cronos</t>
   </si>
   <si>
-    <t>馬自達Cronos</t>
+    <t>马自达Cronos</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E7%94%B0%E6%B7%91%E5%BC%98</t>
@@ -887,37 +887,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Bongo_Friendee</t>
   </si>
   <si>
-    <t>馬自達Bongo Friendee</t>
+    <t>马自达Bongo Friendee</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%8A%9F%E8%83%BD%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>多功能休旅車</t>
+    <t>多功能休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94MPV</t>
   </si>
   <si>
-    <t>馬自達MPV</t>
+    <t>马自达MPV</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>鈴木株式會社</t>
+    <t>铃木株式会社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E8%8F%B2%E7%88%BE%E5%BE%B7%E6%96%AF_(%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A)</t>
   </si>
   <si>
-    <t>馬克·菲爾德斯 (福特汽車)</t>
+    <t>马克·菲尔德斯 (福特汽车)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Tribute</t>
   </si>
   <si>
-    <t>馬自達Tribute</t>
+    <t>马自达Tribute</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%B8%83%E6%96%AF</t>
@@ -929,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-8</t>
   </si>
   <si>
-    <t>馬自達RX-8</t>
+    <t>马自达RX-8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%95%E5%8D%B7%E4%B9%85%E4%B8%80</t>
@@ -947,25 +947,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Millenia</t>
   </si>
   <si>
-    <t>馬自達Millenia</t>
+    <t>马自达Millenia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Verisa</t>
   </si>
   <si>
-    <t>馬自達Verisa</t>
+    <t>马自达Verisa</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-7</t>
   </si>
   <si>
-    <t>馬自達CX-7</t>
+    <t>马自达CX-7</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Biante</t>
   </si>
   <si>
-    <t>馬自達Biante</t>
+    <t>马自达Biante</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E5%86%85%E5%AD%9D</t>
@@ -977,49 +977,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-3</t>
   </si>
   <si>
-    <t>馬自達CX-3</t>
+    <t>马自达CX-3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-9</t>
   </si>
   <si>
-    <t>馬自達CX-9</t>
+    <t>马自达CX-9</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E5%B8%82</t>
   </si>
   <si>
-    <t>廣島市</t>
+    <t>广岛市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>雷諾</t>
+    <t>雷诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>電視廣告</t>
+    <t>电视广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%8A%B7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>促銷活動</t>
+    <t>促销活动</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Only_the_Strong_(film)</t>
@@ -1031,37 +1031,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>馬自達博物館</t>
+    <t>马自达博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E7%B8%A3</t>
   </si>
   <si>
-    <t>神奈川縣</t>
+    <t>神奈川县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E5%B8%82</t>
   </si>
   <si>
-    <t>橫濱市</t>
+    <t>横滨市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%A5%88%E5%B7%9D%E5%8D%80</t>
   </si>
   <si>
-    <t>神奈川區</t>
+    <t>神奈川区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94%E7%B6%9C%E5%90%88%E6%B1%BD%E8%BB%8A%E8%A9%A6%E9%A9%97%E5%A0%B4</t>
   </si>
   <si>
-    <t>馬自達綜合汽車試驗場</t>
+    <t>马自达综合汽车试验场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%AC%A1%E5%B8%82</t>
@@ -1073,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%A6%B0%E5%B8%82</t>
   </si>
   <si>
-    <t>美禰市</t>
+    <t>美祢市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%B5%B7%E9%81%93</t>
@@ -1085,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B7%9D%E9%83%A1_(%E5%A4%A9%E9%B9%BD%E5%9C%8B)</t>
   </si>
   <si>
-    <t>上川郡 (天鹽國)</t>
+    <t>上川郡 (天盐国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%B7%B5%E7%94%BA</t>
   </si>
   <si>
-    <t>劍淵町</t>
+    <t>剑渊町</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E8%A5%BF%E9%83%A1</t>
@@ -1103,13 +1103,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9C%AD%E5%85%A7%E6%9D%91</t>
   </si>
   <si>
-    <t>中札內村</t>
+    <t>中札内村</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%80_(%E5%BB%A3%E5%B3%B6%E5%B8%82)</t>
   </si>
   <si>
-    <t>南區 (廣島市)</t>
+    <t>南区 (广岛市)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E5%BA%9C%E5%B8%82</t>
@@ -1121,25 +1121,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%80%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>變速器</t>
+    <t>变速器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E6%BE%A4%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐澤西州</t>
+    <t>纽泽西州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%80%AB%E8%A5%BF%E4%BA%9E%E8%87%AA%E6%B2%BB%E5%8D%80</t>
   </si>
   <si>
-    <t>巴倫西亞自治區</t>
+    <t>巴伦西亚自治区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%97%E7%9C%81</t>
@@ -1163,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B1%BD%E8%BD%8E%E8%BB%8A</t>
   </si>
   <si>
-    <t>一汽轎車</t>
+    <t>一汽轿车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E6%9E%97%E7%9C%81</t>
@@ -1193,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%8A%A0%E9%81%94</t>
   </si>
   <si>
-    <t>雅加達</t>
+    <t>雅加达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1205,31 +1205,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E5%85%A7%E5%B8%82</t>
   </si>
   <si>
-    <t>河內市</t>
+    <t>河内市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E8%98%AD%E8%8E%AA</t>
   </si>
   <si>
-    <t>雪蘭莪</t>
+    <t>雪兰莪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%B9%96%E7%9C%81</t>
   </si>
   <si>
-    <t>內湖省</t>
+    <t>内湖省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%93%A5%E5%A4%A7</t>
@@ -1241,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E7%88%BE</t>
   </si>
   <si>
-    <t>厄瓜多爾</t>
+    <t>厄瓜多尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%A4%9A</t>
@@ -1259,7 +1259,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E9%BB%91%E8%98%AD</t>
   </si>
   <si>
-    <t>德黑蘭</t>
+    <t>德黑兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -1289,19 +1289,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E7%B4%8D%E8%8F%AF%E6%89%98%E5%B7%9E</t>
   </si>
   <si>
-    <t>瓜納華托州</t>
+    <t>瓜纳华托州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9B%BC%E5%8D%A1_(%E7%93%9C%E7%B4%8D%E8%8F%AF%E6%89%98%E5%B7%9E)</t>
   </si>
   <si>
-    <t>薩拉曼卡 (瓜納華托州)</t>
+    <t>萨拉曼卡 (瓜纳华托州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>馬自達醫院</t>
+    <t>马自达医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%AB%E5%B0%8F%E7%89%A7%E5%B8%82</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E5%B8%82</t>
   </si>
   <si>
-    <t>千葉市</t>
+    <t>千叶市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A7%E5%8D%97%E5%B8%82</t>
@@ -1343,7 +1343,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%88%E6%83%A0%E7%94%BA</t>
   </si>
   <si>
-    <t>須惠町</t>
+    <t>须惠町</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E4%BA%95%E5%B8%82</t>
@@ -1361,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Titan</t>
   </si>
   <si>
-    <t>馬自達Titan</t>
+    <t>马自达Titan</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%94%B0%E7%94%BA</t>
@@ -1379,31 +1379,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%8A%9B%E6%96%AF%C2%B7%E6%B1%AA%E5%85%8B%E7%88%BE</t>
   </si>
   <si>
-    <t>菲力斯·汪克爾</t>
+    <t>菲力斯·汪克尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>通用汽車</t>
+    <t>通用汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-2</t>
   </si>
   <si>
-    <t>馬自達RX-2</t>
+    <t>马自达RX-2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-3</t>
   </si>
   <si>
-    <t>馬自達RX-3</t>
+    <t>马自达RX-3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94RX-4</t>
   </si>
   <si>
-    <t>馬自達RX-4</t>
+    <t>马自达RX-4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%92%E8%8A%9224%E5%B0%8F%E6%97%B6%E8%80%90%E5%8A%9B%E8%B5%9B</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%948</t>
   </si>
   <si>
-    <t>馬自達8</t>
+    <t>马自达8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F</t>
@@ -1427,19 +1427,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94%E8%BB%8A%E7%B3%BB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>馬自達車系列表</t>
+    <t>马自达车系列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-4</t>
   </si>
   <si>
-    <t>馬自達CX-4</t>
+    <t>马自达CX-4</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94CX-8</t>
   </si>
   <si>
-    <t>馬自達CX-8</t>
+    <t>马自达CX-8</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Mazdaspeed</t>
@@ -1451,19 +1451,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94E%26T</t>
   </si>
   <si>
-    <t>馬自達E&amp;T</t>
+    <t>马自达E&amp;T</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%97%A5%E7%B6%93%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>Template talk-日經平均指數</t>
+    <t>Template talk-日经平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%B6%93%E5%B9%B3%E5%9D%87%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>日經平均指數</t>
+    <t>日经平均指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%81%AB%E8%85%BF</t>
@@ -1493,7 +1493,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%9C%E7%94%B2%E8%90%AC</t>
   </si>
   <si>
-    <t>龜甲萬</t>
+    <t>龟甲万</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%B3%E4%B9%8B%E7%B4%A0</t>
@@ -1505,13 +1505,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%85%99%E8%8D%89%E7%94%A2%E6%A5%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>日本煙草產業公司</t>
+    <t>日本烟草产业公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%BA%97%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>東麗株式會社</t>
+    <t>东丽株式会社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AD%90%E5%88%B6%E7%BA%B8</t>
@@ -1523,19 +1523,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E5%8C%96%E5%AD%B8%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三菱化學控股</t>
+    <t>三菱化学控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>住友化學</t>
+    <t>住友化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E8%B6%8A%E5%8C%96%E5%AD%B8%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>信越化學工業</t>
+    <t>信越化学工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%83%A8%E5%85%B4%E4%BA%A7</t>
@@ -1547,37 +1547,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E7%8E%8B%E6%A0%AA%E5%BC%8F%E6%9C%83%E7%A4%BE</t>
   </si>
   <si>
-    <t>花王株式會社</t>
+    <t>花王株式会社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E8%BB%9F%E7%89%87%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>富士軟片控股</t>
+    <t>富士软片控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%9F%E5%A0%82</t>
   </si>
   <si>
-    <t>資生堂</t>
+    <t>资生堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E7%94%B0%E8%97%A5%E5%93%81%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>武田藥品工業</t>
+    <t>武田药品工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E4%BD%8F%E5%8F%8B%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>大日本住友製藥</t>
+    <t>大日本住友制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E9%87%8E%E7%BE%A9%E8%A3%BD%E8%97%A5</t>
   </si>
   <si>
-    <t>鹽野義製藥</t>
+    <t>盐野义制药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JX%E6%8E%A7%E8%82%A1</t>
@@ -1589,7 +1589,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E6%A9%A1%E8%86%A0</t>
   </si>
   <si>
-    <t>橫濱橡膠</t>
+    <t>横滨橡胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E5%8F%B8%E9%80%9A</t>
@@ -1613,19 +1613,19 @@
     <t>https://zh.wikipedia.org/wiki/TOTO_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>TOTO (企業)</t>
+    <t>TOTO (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%97%A5%E9%90%B5%E4%BD%8F%E9%87%91</t>
   </si>
   <si>
-    <t>新日鐵住金</t>
+    <t>新日铁住金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%88%B6%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>神戶製鋼所</t>
+    <t>神户制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/JFE%E6%8E%A7%E8%82%A1</t>
@@ -1637,13 +1637,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%9D%BE%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>小松製作所</t>
+    <t>小松制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%91%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>大金工業</t>
+    <t>大金工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%B2%BE%E5%B7%A5</t>
@@ -1661,13 +1661,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%85%E4%BF%9D%E7%94%B0_(%E4%BC%81%E6%A5%AD)</t>
   </si>
   <si>
-    <t>久保田 (企業)</t>
+    <t>久保田 (企业)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E8%A3%BD%E9%8B%BC%E6%89%80</t>
   </si>
   <si>
-    <t>日本製鋼所</t>
+    <t>日本制钢所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -1709,13 +1709,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%A5%BF%E6%AD%90</t>
   </si>
   <si>
-    <t>卡西歐</t>
+    <t>卡西欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%AB%8B%E8%A3%BD%E4%BD%9C%E6%89%80</t>
   </si>
   <si>
-    <t>日立製作所</t>
+    <t>日立制作所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E8%8A%9D</t>
@@ -1733,13 +1733,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%B7%9D%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>安川電機</t>
+    <t>安川电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%80%9A</t>
@@ -1751,13 +1751,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%96%E9%9B%BB%E6%B0%A3%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>沖電氣工業</t>
+    <t>冲电气工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%B8%8B%E9%9B%BB%E5%99%A8</t>
   </si>
   <si>
-    <t>松下電器</t>
+    <t>松下电器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%99%AE</t>
@@ -1781,19 +1781,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%BE%8E%E9%9B%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>三美電機</t>
+    <t>三美电机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>先鋒公司</t>
+    <t>先锋公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A3%9D</t>
   </si>
   <si>
-    <t>電裝</t>
+    <t>电装</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%AF%B1%E7%94%B5</t>
@@ -1817,27 +1817,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9D%E5%B4%8E%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>川崎重工業</t>
+    <t>川崎重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>日產汽車</t>
+    <t>日产汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E7%94%B0%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>丰田汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%87%8E%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
@@ -1853,13 +1850,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%B4%E6%9C%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>鈴木公司</t>
+    <t>铃木公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E9%87%8D%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>富士重工業</t>
+    <t>富士重工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%B1%BD%E8%BD%A6</t>
@@ -1877,13 +1874,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%B7%B4%E6%96%AF</t>
   </si>
   <si>
-    <t>奧林巴斯</t>
+    <t>奥林巴斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AF%E5%B0%BC%E5%8D%A1%E7%BE%8E%E8%83%BD%E9%81%94</t>
   </si>
   <si>
-    <t>柯尼卡美能達</t>
+    <t>柯尼卡美能达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B8%E7%89%88%E5%8D%B0%E5%88%B7_(%E5%85%AC%E5%8F%B8)</t>
@@ -1907,31 +1904,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%88%90%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>大成建設</t>
+    <t>大成建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%9E%97%E7%B5%84</t>
   </si>
   <si>
-    <t>大林組</t>
+    <t>大林组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%B0%B4%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>清水建設</t>
+    <t>清水建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BF%E5%B3%B6%E5%BB%BA%E8%A8%AD</t>
   </si>
   <si>
-    <t>鹿島建設</t>
+    <t>鹿岛建设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E6%B0%B4%E6%88%BF%E5%B1%8B</t>
   </si>
   <si>
-    <t>積水房屋</t>
+    <t>积水房屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%97%A4%E5%BF%A0%E5%95%86%E4%BA%8B</t>
@@ -1943,13 +1940,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E7%B4%85</t>
   </si>
   <si>
-    <t>丸紅</t>
+    <t>丸红</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E7%89%A9%E7%94%A2</t>
   </si>
   <si>
-    <t>三井物產</t>
+    <t>三井物产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%8F%8B%E5%95%86%E4%BA%8B</t>
@@ -1973,19 +1970,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%B6%8A%E4%BC%8A%E5%8B%A2%E4%B8%B9%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>三越伊勢丹控股</t>
+    <t>三越伊势丹控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%85%E9%8A%B7</t>
   </si>
   <si>
-    <t>迅銷</t>
+    <t>迅销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B3%B6%E5%B1%8B</t>
   </si>
   <si>
-    <t>高島屋</t>
+    <t>高岛屋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B8%E4%BA%95</t>
@@ -1997,7 +1994,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E6%97%BA%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>永旺集團</t>
+    <t>永旺集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UNY</t>
@@ -2015,55 +2012,55 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%97%A5%E8%81%AF%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三菱日聯金融集團</t>
+    <t>三菱日联金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E8%91%89%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>千葉銀行</t>
+    <t>千叶银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%BF%B1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>橫濱銀行</t>
+    <t>横滨银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%B2%A1%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>靜岡銀行</t>
+    <t>静冈银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B2%A1%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98%E8%82%A1%E4%BB%BD</t>
   </si>
   <si>
-    <t>福岡金融集團股份</t>
+    <t>福冈金融集团股份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%BD%8F%E5%8F%8B%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>三井住友金融集團</t>
+    <t>三井住友金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E7%A9%97%E9%87%91%E8%9E%8D%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>瑞穗金融集團</t>
+    <t>瑞穗金融集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>新生銀行</t>
+    <t>新生银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BE%E4%BA%95%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>松井證券</t>
+    <t>松井证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8E%E6%9D%91%E6%8E%A7%E8%82%A1</t>
@@ -2075,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%B5%B7%E4%B8%8A%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>東京海上控股</t>
+    <t>东京海上控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC%E9%87%91%E8%9E%8D%E6%8E%A7%E8%82%A1</t>
@@ -2087,13 +2084,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E7%94%9F%E5%91%BD%E4%BF%9D%E9%9A%AA</t>
   </si>
   <si>
-    <t>第一生命保險</t>
+    <t>第一生命保险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%8D%E4%BF%9D%E6%97%A5%E6%9C%AC%E8%88%88%E4%BA%9E%E6%8E%A7%E8%82%A1</t>
   </si>
   <si>
-    <t>損保日本興亞控股</t>
+    <t>损保日本兴亚控股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BA%95%E4%B8%8D%E5%8A%A8%E4%BA%A7</t>
@@ -2117,49 +2114,49 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%A6%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東武鐵道</t>
+    <t>东武铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E6%80%A5%E8%A1%8C%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>東京急行電鐵</t>
+    <t>东京急行电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%B0%E6%80%A5%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>小田急電鐵</t>
+    <t>小田急电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E7%8E%8B%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京王電鐵</t>
+    <t>京王电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%88%90%E9%9B%BB%E9%90%B5</t>
   </si>
   <si>
-    <t>京成電鐵</t>
+    <t>京成电铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東日本旅客鐵道</t>
+    <t>东日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%B5%B7%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>東海旅客鐵道</t>
+    <t>东海旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%97%A5%E6%9C%AC%E6%97%85%E5%AE%A2%E9%90%B5%E9%81%93</t>
   </si>
   <si>
-    <t>西日本旅客鐵道</t>
+    <t>西日本旅客铁道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%80%9A%E8%BF%90</t>
@@ -2171,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%83%B5%E8%88%B9</t>
   </si>
   <si>
-    <t>日本郵船</t>
+    <t>日本邮船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E8%88%B9%E4%B8%89%E4%BA%95</t>
@@ -2183,7 +2180,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%97%A5%E6%9C%AC%E7%A9%BA%E8%BC%B8</t>
   </si>
   <si>
-    <t>全日本空輸</t>
+    <t>全日本空输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/KDDI</t>
@@ -2195,13 +2192,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E4%BF%A1%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>日本電信電話</t>
+    <t>日本电信电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%8A%80</t>
   </si>
   <si>
-    <t>軟銀</t>
+    <t>软银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NTT_DOCOMO</t>
@@ -2213,37 +2210,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>東京電力</t>
+    <t>东京电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>中部電力</t>
+    <t>中部电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E8%A5%BF%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>關西電力</t>
+    <t>关西电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E7%93%A6%E6%96%AF</t>
   </si>
   <si>
-    <t>東京瓦斯</t>
+    <t>东京瓦斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%AF%B6</t>
   </si>
   <si>
-    <t>東寶</t>
+    <t>东宝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%B7%A8%E8%9B%8B</t>
   </si>
   <si>
-    <t>東京巨蛋</t>
+    <t>东京巨蛋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SECOM</t>
@@ -2255,7 +2252,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A8%82%E7%BE%8E</t>
   </si>
   <si>
-    <t>科樂美</t>
+    <t>科乐美</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E9%80%9A</t>
@@ -2273,7 +2270,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%A8%E5%8B%A2%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>趨勢科技</t>
+    <t>趋势科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DeNA</t>
@@ -2285,31 +2282,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94</t>
   </si>
   <si>
-    <t>馬自達</t>
+    <t>马自达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Chantez</t>
   </si>
   <si>
-    <t>馬自達Chantez</t>
+    <t>马自达Chantez</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94B360</t>
   </si>
   <si>
-    <t>馬自達B360</t>
+    <t>马自达B360</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Porter</t>
   </si>
   <si>
-    <t>馬自達Porter</t>
+    <t>马自达Porter</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Scrum</t>
   </si>
   <si>
-    <t>馬自達Scrum</t>
+    <t>马自达Scrum</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
@@ -2333,13 +2330,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Grand_Familia</t>
   </si>
   <si>
-    <t>馬自達Grand Familia</t>
+    <t>马自达Grand Familia</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Etude</t>
   </si>
   <si>
-    <t>馬自達Etude</t>
+    <t>马自达Etude</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9E%8B%E8%BD%A6</t>
@@ -2351,103 +2348,103 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Luce_Rotary_Coupe</t>
   </si>
   <si>
-    <t>馬自達Luce Rotary Coupe</t>
+    <t>马自达Luce Rotary Coupe</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94929</t>
   </si>
   <si>
-    <t>馬自達929</t>
+    <t>马自达929</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Persona</t>
   </si>
   <si>
-    <t>馬自達Persona</t>
+    <t>马自达Persona</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Roadpacer</t>
   </si>
   <si>
-    <t>馬自達Roadpacer</t>
+    <t>马自达Roadpacer</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>跑車</t>
+    <t>跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%8E%E8%B7%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>轎跑車</t>
+    <t>轿跑车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94K360</t>
   </si>
   <si>
-    <t>馬自達K360</t>
+    <t>马自达K360</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94T600</t>
   </si>
   <si>
-    <t>馬自達T600</t>
+    <t>马自达T600</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94T1500</t>
   </si>
   <si>
-    <t>馬自達T1500</t>
+    <t>马自达T1500</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94T2000</t>
   </si>
   <si>
-    <t>馬自達T2000</t>
+    <t>马自达T2000</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94B%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>馬自達B系列</t>
+    <t>马自达B系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Rotary_Pickup</t>
   </si>
   <si>
-    <t>馬自達Rotary Pickup</t>
+    <t>马自达Rotary Pickup</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%89%E8%B2%A8%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>載貨汽車</t>
+    <t>载货汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Romper</t>
   </si>
   <si>
-    <t>馬自達Romper</t>
+    <t>马自达Romper</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Kraft</t>
   </si>
   <si>
-    <t>馬自達Kraft</t>
+    <t>马自达Kraft</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Boxer</t>
   </si>
   <si>
-    <t>馬自達Boxer</t>
+    <t>马自达Boxer</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%82%E5%9E%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>廂型車</t>
+    <t>厢型车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB</t>
@@ -2459,55 +2456,55 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Light_Bus</t>
   </si>
   <si>
-    <t>馬自達Light Bus</t>
+    <t>马自达Light Bus</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Parkway</t>
   </si>
   <si>
-    <t>馬自達Parkway</t>
+    <t>马自达Parkway</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94AZ-Wagon</t>
   </si>
   <si>
-    <t>馬自達AZ-Wagon</t>
+    <t>马自达AZ-Wagon</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Flair</t>
   </si>
   <si>
-    <t>馬自達Flair</t>
+    <t>马自达Flair</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94AZ-Offroad</t>
   </si>
   <si>
-    <t>馬自達AZ-Offroad</t>
+    <t>马自达AZ-Offroad</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Flair_Crossover</t>
   </si>
   <si>
-    <t>馬自達Flair Crossover</t>
+    <t>马自达Flair Crossover</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Spiano</t>
   </si>
   <si>
-    <t>馬自達Spiano</t>
+    <t>马自达Spiano</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Laputa</t>
   </si>
   <si>
-    <t>馬自達Laputa</t>
+    <t>马自达Laputa</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Flair_Wagon</t>
   </si>
   <si>
-    <t>馬自達Flair Wagon</t>
+    <t>马自达Flair Wagon</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Autozam_Revue</t>
@@ -2519,13 +2516,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94121</t>
   </si>
   <si>
-    <t>馬自達121</t>
+    <t>马自达121</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94323_Astina</t>
   </si>
   <si>
-    <t>馬自達323 Astina</t>
+    <t>马自达323 Astina</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eunos_100</t>
@@ -2537,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Lantis</t>
   </si>
   <si>
-    <t>馬自達Lantis</t>
+    <t>马自达Lantis</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eunos_300</t>
@@ -2567,7 +2564,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94MX-6</t>
   </si>
   <si>
-    <t>馬自達MX-6</t>
+    <t>马自达MX-6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Autozam_Clef</t>
@@ -2591,7 +2588,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94MX-3</t>
   </si>
   <si>
-    <t>馬自達MX-3</t>
+    <t>马自达MX-3</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eunos_Presso</t>
@@ -2603,7 +2600,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%9E%8B%E5%A4%9A%E7%94%A8%E9%80%94%E8%BD%A6</t>
@@ -2615,13 +2612,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Navajo</t>
   </si>
   <si>
-    <t>馬自達Navajo</t>
+    <t>马自达Navajo</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%87%AA%E9%81%94Proceed_Levante</t>
   </si>
   <si>
-    <t>馬自達Proceed Levante</t>
+    <t>马自达Proceed Levante</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Eunos_Cargo_Wagon</t>
@@ -2639,7 +2636,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2657,7 +2654,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MusicBrainz</t>
@@ -2669,13 +2666,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%87%AA%E8%BE%BE</t>
@@ -12654,7 +12651,7 @@
         <v>605</v>
       </c>
       <c r="F332" t="s">
-        <v>606</v>
+        <v>168</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12680,10 +12677,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>606</v>
+      </c>
+      <c r="F333" t="s">
         <v>607</v>
-      </c>
-      <c r="F333" t="s">
-        <v>608</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12709,10 +12706,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>608</v>
+      </c>
+      <c r="F334" t="s">
         <v>609</v>
-      </c>
-      <c r="F334" t="s">
-        <v>610</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12738,10 +12735,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>610</v>
+      </c>
+      <c r="F335" t="s">
         <v>611</v>
-      </c>
-      <c r="F335" t="s">
-        <v>612</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12767,10 +12764,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>612</v>
+      </c>
+      <c r="F336" t="s">
         <v>613</v>
-      </c>
-      <c r="F336" t="s">
-        <v>614</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12796,10 +12793,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>614</v>
+      </c>
+      <c r="F337" t="s">
         <v>615</v>
-      </c>
-      <c r="F337" t="s">
-        <v>616</v>
       </c>
       <c r="G337" t="n">
         <v>9</v>
@@ -12825,10 +12822,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>616</v>
+      </c>
+      <c r="F338" t="s">
         <v>617</v>
-      </c>
-      <c r="F338" t="s">
-        <v>618</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12854,10 +12851,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>618</v>
+      </c>
+      <c r="F339" t="s">
         <v>619</v>
-      </c>
-      <c r="F339" t="s">
-        <v>620</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12883,10 +12880,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>620</v>
+      </c>
+      <c r="F340" t="s">
         <v>621</v>
-      </c>
-      <c r="F340" t="s">
-        <v>622</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12912,10 +12909,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>622</v>
+      </c>
+      <c r="F341" t="s">
         <v>623</v>
-      </c>
-      <c r="F341" t="s">
-        <v>624</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12941,10 +12938,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>624</v>
+      </c>
+      <c r="F342" t="s">
         <v>625</v>
-      </c>
-      <c r="F342" t="s">
-        <v>626</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12970,10 +12967,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>626</v>
+      </c>
+      <c r="F343" t="s">
         <v>627</v>
-      </c>
-      <c r="F343" t="s">
-        <v>628</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12999,10 +12996,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>628</v>
+      </c>
+      <c r="F344" t="s">
         <v>629</v>
-      </c>
-      <c r="F344" t="s">
-        <v>630</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13028,10 +13025,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>630</v>
+      </c>
+      <c r="F345" t="s">
         <v>631</v>
-      </c>
-      <c r="F345" t="s">
-        <v>632</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13057,10 +13054,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>632</v>
+      </c>
+      <c r="F346" t="s">
         <v>633</v>
-      </c>
-      <c r="F346" t="s">
-        <v>634</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13086,10 +13083,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>634</v>
+      </c>
+      <c r="F347" t="s">
         <v>635</v>
-      </c>
-      <c r="F347" t="s">
-        <v>636</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13115,10 +13112,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>636</v>
+      </c>
+      <c r="F348" t="s">
         <v>637</v>
-      </c>
-      <c r="F348" t="s">
-        <v>638</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13144,10 +13141,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>638</v>
+      </c>
+      <c r="F349" t="s">
         <v>639</v>
-      </c>
-      <c r="F349" t="s">
-        <v>640</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13173,10 +13170,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>640</v>
+      </c>
+      <c r="F350" t="s">
         <v>641</v>
-      </c>
-      <c r="F350" t="s">
-        <v>642</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13202,10 +13199,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>642</v>
+      </c>
+      <c r="F351" t="s">
         <v>643</v>
-      </c>
-      <c r="F351" t="s">
-        <v>644</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13231,10 +13228,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>644</v>
+      </c>
+      <c r="F352" t="s">
         <v>645</v>
-      </c>
-      <c r="F352" t="s">
-        <v>646</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13260,10 +13257,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>646</v>
+      </c>
+      <c r="F353" t="s">
         <v>647</v>
-      </c>
-      <c r="F353" t="s">
-        <v>648</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13289,10 +13286,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>648</v>
+      </c>
+      <c r="F354" t="s">
         <v>649</v>
-      </c>
-      <c r="F354" t="s">
-        <v>650</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13318,10 +13315,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>650</v>
+      </c>
+      <c r="F355" t="s">
         <v>651</v>
-      </c>
-      <c r="F355" t="s">
-        <v>652</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13347,10 +13344,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>652</v>
+      </c>
+      <c r="F356" t="s">
         <v>653</v>
-      </c>
-      <c r="F356" t="s">
-        <v>654</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13376,10 +13373,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>654</v>
+      </c>
+      <c r="F357" t="s">
         <v>655</v>
-      </c>
-      <c r="F357" t="s">
-        <v>656</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13405,10 +13402,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>656</v>
+      </c>
+      <c r="F358" t="s">
         <v>657</v>
-      </c>
-      <c r="F358" t="s">
-        <v>658</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13434,10 +13431,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>658</v>
+      </c>
+      <c r="F359" t="s">
         <v>659</v>
-      </c>
-      <c r="F359" t="s">
-        <v>660</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13463,10 +13460,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>660</v>
+      </c>
+      <c r="F360" t="s">
         <v>661</v>
-      </c>
-      <c r="F360" t="s">
-        <v>662</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13492,10 +13489,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>662</v>
+      </c>
+      <c r="F361" t="s">
         <v>663</v>
-      </c>
-      <c r="F361" t="s">
-        <v>664</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13521,10 +13518,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>664</v>
+      </c>
+      <c r="F362" t="s">
         <v>665</v>
-      </c>
-      <c r="F362" t="s">
-        <v>666</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13550,10 +13547,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>666</v>
+      </c>
+      <c r="F363" t="s">
         <v>667</v>
-      </c>
-      <c r="F363" t="s">
-        <v>668</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13579,10 +13576,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>668</v>
+      </c>
+      <c r="F364" t="s">
         <v>669</v>
-      </c>
-      <c r="F364" t="s">
-        <v>670</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13608,10 +13605,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>670</v>
+      </c>
+      <c r="F365" t="s">
         <v>671</v>
-      </c>
-      <c r="F365" t="s">
-        <v>672</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13637,10 +13634,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>672</v>
+      </c>
+      <c r="F366" t="s">
         <v>673</v>
-      </c>
-      <c r="F366" t="s">
-        <v>674</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13666,10 +13663,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>674</v>
+      </c>
+      <c r="F367" t="s">
         <v>675</v>
-      </c>
-      <c r="F367" t="s">
-        <v>676</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13695,10 +13692,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>676</v>
+      </c>
+      <c r="F368" t="s">
         <v>677</v>
-      </c>
-      <c r="F368" t="s">
-        <v>678</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13724,10 +13721,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>678</v>
+      </c>
+      <c r="F369" t="s">
         <v>679</v>
-      </c>
-      <c r="F369" t="s">
-        <v>680</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13753,10 +13750,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>680</v>
+      </c>
+      <c r="F370" t="s">
         <v>681</v>
-      </c>
-      <c r="F370" t="s">
-        <v>682</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13782,10 +13779,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>682</v>
+      </c>
+      <c r="F371" t="s">
         <v>683</v>
-      </c>
-      <c r="F371" t="s">
-        <v>684</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13811,10 +13808,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>684</v>
+      </c>
+      <c r="F372" t="s">
         <v>685</v>
-      </c>
-      <c r="F372" t="s">
-        <v>686</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13840,10 +13837,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
+        <v>686</v>
+      </c>
+      <c r="F373" t="s">
         <v>687</v>
-      </c>
-      <c r="F373" t="s">
-        <v>688</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13869,10 +13866,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
+        <v>688</v>
+      </c>
+      <c r="F374" t="s">
         <v>689</v>
-      </c>
-      <c r="F374" t="s">
-        <v>690</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13898,10 +13895,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
+        <v>690</v>
+      </c>
+      <c r="F375" t="s">
         <v>691</v>
-      </c>
-      <c r="F375" t="s">
-        <v>692</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13927,10 +13924,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
+        <v>692</v>
+      </c>
+      <c r="F376" t="s">
         <v>693</v>
-      </c>
-      <c r="F376" t="s">
-        <v>694</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13956,10 +13953,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
+        <v>694</v>
+      </c>
+      <c r="F377" t="s">
         <v>695</v>
-      </c>
-      <c r="F377" t="s">
-        <v>696</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13985,10 +13982,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
+        <v>696</v>
+      </c>
+      <c r="F378" t="s">
         <v>697</v>
-      </c>
-      <c r="F378" t="s">
-        <v>698</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14014,10 +14011,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
+        <v>698</v>
+      </c>
+      <c r="F379" t="s">
         <v>699</v>
-      </c>
-      <c r="F379" t="s">
-        <v>700</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14043,10 +14040,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
+        <v>700</v>
+      </c>
+      <c r="F380" t="s">
         <v>701</v>
-      </c>
-      <c r="F380" t="s">
-        <v>702</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14072,10 +14069,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
+        <v>702</v>
+      </c>
+      <c r="F381" t="s">
         <v>703</v>
-      </c>
-      <c r="F381" t="s">
-        <v>704</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14101,10 +14098,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
+        <v>704</v>
+      </c>
+      <c r="F382" t="s">
         <v>705</v>
-      </c>
-      <c r="F382" t="s">
-        <v>706</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14130,10 +14127,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
+        <v>706</v>
+      </c>
+      <c r="F383" t="s">
         <v>707</v>
-      </c>
-      <c r="F383" t="s">
-        <v>708</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14159,10 +14156,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
+        <v>708</v>
+      </c>
+      <c r="F384" t="s">
         <v>709</v>
-      </c>
-      <c r="F384" t="s">
-        <v>710</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14188,10 +14185,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
+        <v>710</v>
+      </c>
+      <c r="F385" t="s">
         <v>711</v>
-      </c>
-      <c r="F385" t="s">
-        <v>712</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14217,10 +14214,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
+        <v>712</v>
+      </c>
+      <c r="F386" t="s">
         <v>713</v>
-      </c>
-      <c r="F386" t="s">
-        <v>714</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14246,10 +14243,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
+        <v>714</v>
+      </c>
+      <c r="F387" t="s">
         <v>715</v>
-      </c>
-      <c r="F387" t="s">
-        <v>716</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14275,10 +14272,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
+        <v>716</v>
+      </c>
+      <c r="F388" t="s">
         <v>717</v>
-      </c>
-      <c r="F388" t="s">
-        <v>718</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14304,10 +14301,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
+        <v>718</v>
+      </c>
+      <c r="F389" t="s">
         <v>719</v>
-      </c>
-      <c r="F389" t="s">
-        <v>720</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14333,10 +14330,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
+        <v>720</v>
+      </c>
+      <c r="F390" t="s">
         <v>721</v>
-      </c>
-      <c r="F390" t="s">
-        <v>722</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14362,10 +14359,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
+        <v>722</v>
+      </c>
+      <c r="F391" t="s">
         <v>723</v>
-      </c>
-      <c r="F391" t="s">
-        <v>724</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14391,10 +14388,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
+        <v>724</v>
+      </c>
+      <c r="F392" t="s">
         <v>725</v>
-      </c>
-      <c r="F392" t="s">
-        <v>726</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14420,10 +14417,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
+        <v>726</v>
+      </c>
+      <c r="F393" t="s">
         <v>727</v>
-      </c>
-      <c r="F393" t="s">
-        <v>728</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14449,10 +14446,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
+        <v>728</v>
+      </c>
+      <c r="F394" t="s">
         <v>729</v>
-      </c>
-      <c r="F394" t="s">
-        <v>730</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14478,10 +14475,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
+        <v>730</v>
+      </c>
+      <c r="F395" t="s">
         <v>731</v>
-      </c>
-      <c r="F395" t="s">
-        <v>732</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14507,10 +14504,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>732</v>
+      </c>
+      <c r="F396" t="s">
         <v>733</v>
-      </c>
-      <c r="F396" t="s">
-        <v>734</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14536,10 +14533,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
+        <v>734</v>
+      </c>
+      <c r="F397" t="s">
         <v>735</v>
-      </c>
-      <c r="F397" t="s">
-        <v>736</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14565,10 +14562,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
+        <v>736</v>
+      </c>
+      <c r="F398" t="s">
         <v>737</v>
-      </c>
-      <c r="F398" t="s">
-        <v>738</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14594,10 +14591,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
+        <v>738</v>
+      </c>
+      <c r="F399" t="s">
         <v>739</v>
-      </c>
-      <c r="F399" t="s">
-        <v>740</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14623,10 +14620,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
+        <v>740</v>
+      </c>
+      <c r="F400" t="s">
         <v>741</v>
-      </c>
-      <c r="F400" t="s">
-        <v>742</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14652,10 +14649,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
+        <v>742</v>
+      </c>
+      <c r="F401" t="s">
         <v>743</v>
-      </c>
-      <c r="F401" t="s">
-        <v>744</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14681,10 +14678,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
+        <v>744</v>
+      </c>
+      <c r="F402" t="s">
         <v>745</v>
-      </c>
-      <c r="F402" t="s">
-        <v>746</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14710,10 +14707,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
+        <v>746</v>
+      </c>
+      <c r="F403" t="s">
         <v>747</v>
-      </c>
-      <c r="F403" t="s">
-        <v>748</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14739,10 +14736,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
+        <v>748</v>
+      </c>
+      <c r="F404" t="s">
         <v>749</v>
-      </c>
-      <c r="F404" t="s">
-        <v>750</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14768,10 +14765,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
+        <v>750</v>
+      </c>
+      <c r="F405" t="s">
         <v>751</v>
-      </c>
-      <c r="F405" t="s">
-        <v>752</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14797,10 +14794,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
+        <v>752</v>
+      </c>
+      <c r="F406" t="s">
         <v>753</v>
-      </c>
-      <c r="F406" t="s">
-        <v>754</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14826,10 +14823,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
+        <v>754</v>
+      </c>
+      <c r="F407" t="s">
         <v>755</v>
-      </c>
-      <c r="F407" t="s">
-        <v>756</v>
       </c>
       <c r="G407" t="n">
         <v>137</v>
@@ -14884,10 +14881,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
+        <v>756</v>
+      </c>
+      <c r="F409" t="s">
         <v>757</v>
-      </c>
-      <c r="F409" t="s">
-        <v>758</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14913,10 +14910,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
+        <v>758</v>
+      </c>
+      <c r="F410" t="s">
         <v>759</v>
-      </c>
-      <c r="F410" t="s">
-        <v>760</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14942,10 +14939,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
+        <v>760</v>
+      </c>
+      <c r="F411" t="s">
         <v>761</v>
-      </c>
-      <c r="F411" t="s">
-        <v>762</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14971,10 +14968,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
+        <v>760</v>
+      </c>
+      <c r="F412" t="s">
         <v>761</v>
-      </c>
-      <c r="F412" t="s">
-        <v>762</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15000,10 +14997,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
+        <v>762</v>
+      </c>
+      <c r="F413" t="s">
         <v>763</v>
-      </c>
-      <c r="F413" t="s">
-        <v>764</v>
       </c>
       <c r="G413" t="n">
         <v>11</v>
@@ -15029,10 +15026,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
+        <v>764</v>
+      </c>
+      <c r="F414" t="s">
         <v>765</v>
-      </c>
-      <c r="F414" t="s">
-        <v>766</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15087,10 +15084,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
+        <v>766</v>
+      </c>
+      <c r="F416" t="s">
         <v>767</v>
-      </c>
-      <c r="F416" t="s">
-        <v>768</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15116,10 +15113,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
+        <v>768</v>
+      </c>
+      <c r="F417" t="s">
         <v>769</v>
-      </c>
-      <c r="F417" t="s">
-        <v>770</v>
       </c>
       <c r="G417" t="n">
         <v>6</v>
@@ -15232,10 +15229,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
+        <v>770</v>
+      </c>
+      <c r="F421" t="s">
         <v>771</v>
-      </c>
-      <c r="F421" t="s">
-        <v>772</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15290,10 +15287,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
+        <v>772</v>
+      </c>
+      <c r="F423" t="s">
         <v>773</v>
-      </c>
-      <c r="F423" t="s">
-        <v>774</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15319,10 +15316,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
+        <v>774</v>
+      </c>
+      <c r="F424" t="s">
         <v>775</v>
-      </c>
-      <c r="F424" t="s">
-        <v>776</v>
       </c>
       <c r="G424" t="n">
         <v>3</v>
@@ -15435,10 +15432,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
+        <v>776</v>
+      </c>
+      <c r="F428" t="s">
         <v>777</v>
-      </c>
-      <c r="F428" t="s">
-        <v>778</v>
       </c>
       <c r="G428" t="n">
         <v>2</v>
@@ -15464,10 +15461,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
+        <v>778</v>
+      </c>
+      <c r="F429" t="s">
         <v>779</v>
-      </c>
-      <c r="F429" t="s">
-        <v>780</v>
       </c>
       <c r="G429" t="n">
         <v>5</v>
@@ -15493,10 +15490,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
+        <v>780</v>
+      </c>
+      <c r="F430" t="s">
         <v>781</v>
-      </c>
-      <c r="F430" t="s">
-        <v>782</v>
       </c>
       <c r="G430" t="n">
         <v>2</v>
@@ -15580,10 +15577,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
+        <v>778</v>
+      </c>
+      <c r="F433" t="s">
         <v>779</v>
-      </c>
-      <c r="F433" t="s">
-        <v>780</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15609,10 +15606,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
+        <v>782</v>
+      </c>
+      <c r="F434" t="s">
         <v>783</v>
-      </c>
-      <c r="F434" t="s">
-        <v>784</v>
       </c>
       <c r="G434" t="n">
         <v>2</v>
@@ -15638,10 +15635,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
+        <v>784</v>
+      </c>
+      <c r="F435" t="s">
         <v>785</v>
-      </c>
-      <c r="F435" t="s">
-        <v>786</v>
       </c>
       <c r="G435" t="n">
         <v>11</v>
@@ -15667,10 +15664,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
+        <v>786</v>
+      </c>
+      <c r="F436" t="s">
         <v>787</v>
-      </c>
-      <c r="F436" t="s">
-        <v>788</v>
       </c>
       <c r="G436" t="n">
         <v>2</v>
@@ -15812,10 +15809,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
+        <v>788</v>
+      </c>
+      <c r="F441" t="s">
         <v>789</v>
-      </c>
-      <c r="F441" t="s">
-        <v>790</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15841,10 +15838,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
+        <v>790</v>
+      </c>
+      <c r="F442" t="s">
         <v>791</v>
-      </c>
-      <c r="F442" t="s">
-        <v>792</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15870,10 +15867,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
+        <v>792</v>
+      </c>
+      <c r="F443" t="s">
         <v>793</v>
-      </c>
-      <c r="F443" t="s">
-        <v>794</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15899,10 +15896,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
+        <v>794</v>
+      </c>
+      <c r="F444" t="s">
         <v>795</v>
-      </c>
-      <c r="F444" t="s">
-        <v>796</v>
       </c>
       <c r="G444" t="n">
         <v>2</v>
@@ -15928,10 +15925,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
+        <v>796</v>
+      </c>
+      <c r="F445" t="s">
         <v>797</v>
-      </c>
-      <c r="F445" t="s">
-        <v>798</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15957,10 +15954,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
+        <v>796</v>
+      </c>
+      <c r="F446" t="s">
         <v>797</v>
-      </c>
-      <c r="F446" t="s">
-        <v>798</v>
       </c>
       <c r="G446" t="n">
         <v>3</v>
@@ -15986,10 +15983,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
+        <v>798</v>
+      </c>
+      <c r="F447" t="s">
         <v>799</v>
-      </c>
-      <c r="F447" t="s">
-        <v>800</v>
       </c>
       <c r="G447" t="n">
         <v>3</v>
@@ -16015,10 +16012,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
+        <v>800</v>
+      </c>
+      <c r="F448" t="s">
         <v>801</v>
-      </c>
-      <c r="F448" t="s">
-        <v>802</v>
       </c>
       <c r="G448" t="n">
         <v>7</v>
@@ -16044,10 +16041,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
+        <v>802</v>
+      </c>
+      <c r="F449" t="s">
         <v>803</v>
-      </c>
-      <c r="F449" t="s">
-        <v>804</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16073,10 +16070,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
+        <v>804</v>
+      </c>
+      <c r="F450" t="s">
         <v>805</v>
-      </c>
-      <c r="F450" t="s">
-        <v>806</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16102,10 +16099,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
+        <v>806</v>
+      </c>
+      <c r="F451" t="s">
         <v>807</v>
-      </c>
-      <c r="F451" t="s">
-        <v>808</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16160,10 +16157,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
+        <v>808</v>
+      </c>
+      <c r="F453" t="s">
         <v>809</v>
-      </c>
-      <c r="F453" t="s">
-        <v>810</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -16218,10 +16215,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
+        <v>810</v>
+      </c>
+      <c r="F455" t="s">
         <v>811</v>
-      </c>
-      <c r="F455" t="s">
-        <v>812</v>
       </c>
       <c r="G455" t="n">
         <v>3</v>
@@ -16247,10 +16244,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
+        <v>812</v>
+      </c>
+      <c r="F456" t="s">
         <v>813</v>
-      </c>
-      <c r="F456" t="s">
-        <v>814</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16276,10 +16273,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
+        <v>814</v>
+      </c>
+      <c r="F457" t="s">
         <v>815</v>
-      </c>
-      <c r="F457" t="s">
-        <v>816</v>
       </c>
       <c r="G457" t="n">
         <v>4</v>
@@ -16305,10 +16302,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
+        <v>816</v>
+      </c>
+      <c r="F458" t="s">
         <v>817</v>
-      </c>
-      <c r="F458" t="s">
-        <v>818</v>
       </c>
       <c r="G458" t="n">
         <v>4</v>
@@ -16334,10 +16331,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
+        <v>818</v>
+      </c>
+      <c r="F459" t="s">
         <v>819</v>
-      </c>
-      <c r="F459" t="s">
-        <v>820</v>
       </c>
       <c r="G459" t="n">
         <v>8</v>
@@ -16363,10 +16360,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
+        <v>820</v>
+      </c>
+      <c r="F460" t="s">
         <v>821</v>
-      </c>
-      <c r="F460" t="s">
-        <v>822</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16392,10 +16389,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
+        <v>822</v>
+      </c>
+      <c r="F461" t="s">
         <v>823</v>
-      </c>
-      <c r="F461" t="s">
-        <v>824</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -16421,10 +16418,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
+        <v>824</v>
+      </c>
+      <c r="F462" t="s">
         <v>825</v>
-      </c>
-      <c r="F462" t="s">
-        <v>826</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16450,10 +16447,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
+        <v>826</v>
+      </c>
+      <c r="F463" t="s">
         <v>827</v>
-      </c>
-      <c r="F463" t="s">
-        <v>828</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -16479,10 +16476,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
+        <v>762</v>
+      </c>
+      <c r="F464" t="s">
         <v>763</v>
-      </c>
-      <c r="F464" t="s">
-        <v>764</v>
       </c>
       <c r="G464" t="n">
         <v>3</v>
@@ -16508,10 +16505,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
+        <v>828</v>
+      </c>
+      <c r="F465" t="s">
         <v>829</v>
-      </c>
-      <c r="F465" t="s">
-        <v>830</v>
       </c>
       <c r="G465" t="n">
         <v>4</v>
@@ -16537,10 +16534,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
+        <v>830</v>
+      </c>
+      <c r="F466" t="s">
         <v>831</v>
-      </c>
-      <c r="F466" t="s">
-        <v>832</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16566,10 +16563,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
+        <v>832</v>
+      </c>
+      <c r="F467" t="s">
         <v>833</v>
-      </c>
-      <c r="F467" t="s">
-        <v>834</v>
       </c>
       <c r="G467" t="n">
         <v>4</v>
@@ -16624,10 +16621,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
+        <v>834</v>
+      </c>
+      <c r="F469" t="s">
         <v>835</v>
-      </c>
-      <c r="F469" t="s">
-        <v>836</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16653,10 +16650,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
+        <v>836</v>
+      </c>
+      <c r="F470" t="s">
         <v>837</v>
-      </c>
-      <c r="F470" t="s">
-        <v>838</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16682,10 +16679,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
+        <v>838</v>
+      </c>
+      <c r="F471" t="s">
         <v>839</v>
-      </c>
-      <c r="F471" t="s">
-        <v>840</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16740,10 +16737,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
+        <v>840</v>
+      </c>
+      <c r="F473" t="s">
         <v>841</v>
-      </c>
-      <c r="F473" t="s">
-        <v>842</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16769,10 +16766,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
+        <v>842</v>
+      </c>
+      <c r="F474" t="s">
         <v>843</v>
-      </c>
-      <c r="F474" t="s">
-        <v>844</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16798,10 +16795,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
+        <v>844</v>
+      </c>
+      <c r="F475" t="s">
         <v>845</v>
-      </c>
-      <c r="F475" t="s">
-        <v>846</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -16827,10 +16824,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
+        <v>846</v>
+      </c>
+      <c r="F476" t="s">
         <v>847</v>
-      </c>
-      <c r="F476" t="s">
-        <v>848</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -16856,10 +16853,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
+        <v>848</v>
+      </c>
+      <c r="F477" t="s">
         <v>849</v>
-      </c>
-      <c r="F477" t="s">
-        <v>850</v>
       </c>
       <c r="G477" t="n">
         <v>3</v>
@@ -16885,10 +16882,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
+        <v>850</v>
+      </c>
+      <c r="F478" t="s">
         <v>851</v>
-      </c>
-      <c r="F478" t="s">
-        <v>852</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17030,10 +17027,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
+        <v>852</v>
+      </c>
+      <c r="F483" t="s">
         <v>853</v>
-      </c>
-      <c r="F483" t="s">
-        <v>854</v>
       </c>
       <c r="G483" t="n">
         <v>3</v>
@@ -17059,10 +17056,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
+        <v>854</v>
+      </c>
+      <c r="F484" t="s">
         <v>855</v>
-      </c>
-      <c r="F484" t="s">
-        <v>856</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17088,10 +17085,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
+        <v>856</v>
+      </c>
+      <c r="F485" t="s">
         <v>857</v>
-      </c>
-      <c r="F485" t="s">
-        <v>858</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17117,10 +17114,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
+        <v>858</v>
+      </c>
+      <c r="F486" t="s">
         <v>859</v>
-      </c>
-      <c r="F486" t="s">
-        <v>860</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -17204,10 +17201,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
+        <v>848</v>
+      </c>
+      <c r="F489" t="s">
         <v>849</v>
-      </c>
-      <c r="F489" t="s">
-        <v>850</v>
       </c>
       <c r="G489" t="n">
         <v>2</v>
@@ -17349,10 +17346,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
+        <v>860</v>
+      </c>
+      <c r="F494" t="s">
         <v>861</v>
-      </c>
-      <c r="F494" t="s">
-        <v>862</v>
       </c>
       <c r="G494" t="n">
         <v>2</v>
@@ -17436,10 +17433,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
+        <v>862</v>
+      </c>
+      <c r="F497" t="s">
         <v>863</v>
-      </c>
-      <c r="F497" t="s">
-        <v>864</v>
       </c>
       <c r="G497" t="n">
         <v>2</v>
@@ -17465,10 +17462,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
+        <v>864</v>
+      </c>
+      <c r="F498" t="s">
         <v>865</v>
-      </c>
-      <c r="F498" t="s">
-        <v>866</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17494,10 +17491,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
+        <v>866</v>
+      </c>
+      <c r="F499" t="s">
         <v>867</v>
-      </c>
-      <c r="F499" t="s">
-        <v>868</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17523,10 +17520,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
+        <v>796</v>
+      </c>
+      <c r="F500" t="s">
         <v>797</v>
-      </c>
-      <c r="F500" t="s">
-        <v>798</v>
       </c>
       <c r="G500" t="n">
         <v>14</v>
@@ -17581,10 +17578,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
+        <v>868</v>
+      </c>
+      <c r="F502" t="s">
         <v>869</v>
-      </c>
-      <c r="F502" t="s">
-        <v>870</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17610,10 +17607,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
+        <v>870</v>
+      </c>
+      <c r="F503" t="s">
         <v>871</v>
-      </c>
-      <c r="F503" t="s">
-        <v>872</v>
       </c>
       <c r="G503" t="n">
         <v>2</v>
@@ -17755,10 +17752,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
+        <v>782</v>
+      </c>
+      <c r="F508" t="s">
         <v>783</v>
-      </c>
-      <c r="F508" t="s">
-        <v>784</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18074,10 +18071,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
+        <v>872</v>
+      </c>
+      <c r="F519" t="s">
         <v>873</v>
-      </c>
-      <c r="F519" t="s">
-        <v>874</v>
       </c>
       <c r="G519" t="n">
         <v>3</v>
@@ -18103,10 +18100,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
+        <v>874</v>
+      </c>
+      <c r="F520" t="s">
         <v>875</v>
-      </c>
-      <c r="F520" t="s">
-        <v>876</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18132,10 +18129,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
+        <v>876</v>
+      </c>
+      <c r="F521" t="s">
         <v>877</v>
-      </c>
-      <c r="F521" t="s">
-        <v>878</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -18161,10 +18158,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
+        <v>878</v>
+      </c>
+      <c r="F522" t="s">
         <v>879</v>
-      </c>
-      <c r="F522" t="s">
-        <v>880</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18190,10 +18187,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
+        <v>880</v>
+      </c>
+      <c r="F523" t="s">
         <v>881</v>
-      </c>
-      <c r="F523" t="s">
-        <v>882</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -18219,10 +18216,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
+        <v>882</v>
+      </c>
+      <c r="F524" t="s">
         <v>883</v>
-      </c>
-      <c r="F524" t="s">
-        <v>884</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -18248,10 +18245,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
+        <v>884</v>
+      </c>
+      <c r="F525" t="s">
         <v>885</v>
-      </c>
-      <c r="F525" t="s">
-        <v>886</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18277,10 +18274,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
+        <v>886</v>
+      </c>
+      <c r="F526" t="s">
         <v>887</v>
-      </c>
-      <c r="F526" t="s">
-        <v>888</v>
       </c>
       <c r="G526" t="n">
         <v>5</v>
@@ -18306,10 +18303,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F527" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
